--- a/扫雷设计文档.xlsx
+++ b/扫雷设计文档.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="扫雷界面" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Present</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,35 +34,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showBoard(rowNum,columnNum,mineNum)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clickCube(cubeRow,cubeColumn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getClickRow()
-getClickColumn()
-clickCube(cubeRow,cubeColumn,toOpenCubeNum)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>openCube(cubeRow,cubeColumn)
 return toOpenCubeNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initBoard(rowNum,columnNum,mineNum)
-return boardBean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,6 +47,30 @@
 getColumnNum()
 getMineNum()
 showBoard(boardBean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initBoard()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveBoard(boardBean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCube(cubeRow,cubeColumn,toOpenCubeNum)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +94,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,13 +138,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,8 +186,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,57 +522,55 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
